--- a/assets/maps/MapEditor/Test2.xlsx
+++ b/assets/maps/MapEditor/Test2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Web\portal_2d\assets\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889B00F2-3074-419B-9CD4-78D90A5E31DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F75665B-F308-4AFB-8550-710BCF0E37BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -365,12 +365,12 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+      <selection activeCell="AC9" sqref="AC9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -468,7 +468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -578,48 +578,20 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1">
-        <v>2</v>
-      </c>
-      <c r="I3" s="1">
-        <v>2</v>
-      </c>
-      <c r="J3" s="1">
-        <v>2</v>
-      </c>
-      <c r="K3" s="1">
-        <v>2</v>
-      </c>
-      <c r="L3" s="1">
-        <v>2</v>
-      </c>
-      <c r="M3" s="1">
-        <v>2</v>
-      </c>
-      <c r="N3" s="1">
-        <v>2</v>
-      </c>
-      <c r="O3" s="1">
-        <v>2</v>
-      </c>
-      <c r="P3" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>1</v>
-      </c>
-      <c r="R3" s="1">
-        <v>1</v>
-      </c>
-      <c r="S3" s="1">
-        <v>1</v>
-      </c>
-      <c r="T3" s="1">
-        <v>1</v>
-      </c>
-      <c r="U3" s="1">
-        <v>1</v>
-      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
       <c r="V3" s="1">
         <v>2</v>
       </c>
@@ -654,7 +626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -666,48 +638,20 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1">
-        <v>2</v>
-      </c>
-      <c r="I4" s="1">
-        <v>2</v>
-      </c>
-      <c r="J4" s="1">
-        <v>2</v>
-      </c>
-      <c r="K4" s="1">
-        <v>2</v>
-      </c>
-      <c r="L4" s="1">
-        <v>2</v>
-      </c>
-      <c r="M4" s="1">
-        <v>2</v>
-      </c>
-      <c r="N4" s="1">
-        <v>2</v>
-      </c>
-      <c r="O4" s="1">
-        <v>2</v>
-      </c>
-      <c r="P4" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>1</v>
-      </c>
-      <c r="R4" s="1">
-        <v>1</v>
-      </c>
-      <c r="S4" s="1">
-        <v>1</v>
-      </c>
-      <c r="T4" s="1">
-        <v>1</v>
-      </c>
-      <c r="U4" s="1">
-        <v>1</v>
-      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
       <c r="V4" s="1">
         <v>2</v>
       </c>
@@ -742,7 +686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -762,24 +706,12 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-      <c r="P5" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>1</v>
-      </c>
-      <c r="R5" s="1">
-        <v>1</v>
-      </c>
-      <c r="S5" s="1">
-        <v>1</v>
-      </c>
-      <c r="T5" s="1">
-        <v>1</v>
-      </c>
-      <c r="U5" s="1">
-        <v>1</v>
-      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
@@ -800,7 +732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -820,18 +752,10 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>1</v>
-      </c>
-      <c r="R6" s="1">
-        <v>1</v>
-      </c>
-      <c r="S6" s="1">
-        <v>1</v>
-      </c>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
@@ -854,7 +778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -874,18 +798,10 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-      <c r="P7" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>1</v>
-      </c>
-      <c r="R7" s="1">
-        <v>1</v>
-      </c>
-      <c r="S7" s="1">
-        <v>1</v>
-      </c>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
@@ -908,7 +824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -954,7 +870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -968,18 +884,10 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1">
-        <v>2</v>
-      </c>
-      <c r="K9" s="1">
-        <v>2</v>
-      </c>
-      <c r="L9" s="1">
-        <v>2</v>
-      </c>
-      <c r="M9" s="1">
-        <v>2</v>
-      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -1008,7 +916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -1034,15 +942,9 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
-      <c r="V10" s="1">
-        <v>2</v>
-      </c>
-      <c r="W10" s="1">
-        <v>2</v>
-      </c>
-      <c r="X10" s="1">
-        <v>2</v>
-      </c>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
@@ -1060,7 +962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -1106,7 +1008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -1127,9 +1029,15 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
+      <c r="Q12" s="1">
+        <v>2</v>
+      </c>
+      <c r="R12" s="1">
+        <v>2</v>
+      </c>
+      <c r="S12" s="1">
+        <v>2</v>
+      </c>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
@@ -1152,7 +1060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -1170,27 +1078,13 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="1">
-        <v>2</v>
-      </c>
-      <c r="O13" s="1">
-        <v>2</v>
-      </c>
-      <c r="P13" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>2</v>
-      </c>
-      <c r="R13" s="1">
-        <v>2</v>
-      </c>
-      <c r="S13" s="1">
-        <v>2</v>
-      </c>
-      <c r="T13" s="1">
-        <v>2</v>
-      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
@@ -1212,7 +1106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -1230,27 +1124,13 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="1">
-        <v>2</v>
-      </c>
-      <c r="O14" s="1">
-        <v>2</v>
-      </c>
-      <c r="P14" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>2</v>
-      </c>
-      <c r="R14" s="1">
-        <v>2</v>
-      </c>
-      <c r="S14" s="1">
-        <v>2</v>
-      </c>
-      <c r="T14" s="1">
-        <v>2</v>
-      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
@@ -1272,7 +1152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -1360,7 +1240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -1448,7 +1328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -1546,7 +1426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1</v>
       </c>

--- a/assets/maps/MapEditor/Test2.xlsx
+++ b/assets/maps/MapEditor/Test2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Web\portal_2d\assets\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C180657-BE5E-49A5-BC54-3627FD036A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD604BC3-CB66-4439-B1B5-A553D9356F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,7 +381,7 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AB13" sqref="AB13"/>
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1082,16 +1082,36 @@
       <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="C8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>-1</v>
+      </c>
       <c r="M8" s="1">
         <v>-1</v>
       </c>
@@ -1160,32 +1180,84 @@
       <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
+      <c r="C9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="W9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>-1</v>
+      </c>
       <c r="AC9" s="1">
         <v>1</v>
       </c>
@@ -1206,32 +1278,84 @@
       <c r="B10" s="1">
         <v>2</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
+      <c r="C10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="W10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>-1</v>
+      </c>
       <c r="AC10" s="1">
         <v>1</v>
       </c>
@@ -1252,32 +1376,84 @@
       <c r="B11" s="1">
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
+      <c r="C11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="W11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>-1</v>
+      </c>
       <c r="AC11" s="1">
         <v>1</v>
       </c>
@@ -1298,20 +1474,48 @@
       <c r="B12" s="1">
         <v>2</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
+      <c r="C12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P12" s="1">
+        <v>-1</v>
+      </c>
       <c r="Q12" s="1">
         <v>2</v>
       </c>
@@ -1321,19 +1525,33 @@
       <c r="S12" s="1">
         <v>2</v>
       </c>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
+      <c r="T12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="W12" s="1">
+        <v>-1</v>
+      </c>
       <c r="X12" s="1">
         <v>2</v>
       </c>
       <c r="Y12" s="1">
         <v>2</v>
       </c>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
+      <c r="Z12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>-1</v>
+      </c>
       <c r="AC12" s="1">
         <v>1</v>
       </c>
@@ -1354,32 +1572,84 @@
       <c r="B13" s="1">
         <v>2</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
+      <c r="C13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="W13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>-1</v>
+      </c>
       <c r="AC13" s="1">
         <v>1</v>
       </c>
@@ -1400,32 +1670,84 @@
       <c r="B14" s="1">
         <v>2</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
+      <c r="C14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="O14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="P14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="R14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="W14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="X14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>-1</v>
+      </c>
       <c r="AC14" s="1">
         <v>1</v>
       </c>
@@ -1446,11 +1768,21 @@
       <c r="B15" s="1">
         <v>2</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="C15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>-1</v>
+      </c>
       <c r="H15" s="1">
         <v>2</v>
       </c>
@@ -1534,11 +1866,21 @@
       <c r="B16" s="1">
         <v>2</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="C16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>-1</v>
+      </c>
       <c r="H16" s="1">
         <v>2</v>
       </c>
@@ -1821,7 +2163,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:U5 V5:AB5 G6:U6 C6:Q7 S6:AB7 M6:M8 R6:R8 W6:W8 Z6:Z8 N8:V8 X8:Y8 AA8:AB8">
+  <conditionalFormatting sqref="C3:U5 V5:AB5 G6:U6 S6:AB7 M6:M8 R6:R8 W6:W8 Z6:Z8 AA8:AB8 C6:Q7 C8:G16 H7:P14 N8:Y8 S8:S11 V8:V11 Y8:Y11 Q9:AB11 Z12:AB14 Q13:Y14 T12:W12">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>-1</formula>
     </cfRule>
